--- a/资料库/冒险之书.xlsx
+++ b/资料库/冒险之书.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="268">
   <si>
     <t>玩家情况</t>
   </si>
@@ -318,6 +318,9 @@
     <t>灰发冒险者讲述了被狼征服的少女的故事</t>
   </si>
   <si>
+    <t>卖给了队伍商品的小贩被卫兵追捕</t>
+  </si>
+  <si>
     <t>物品名</t>
   </si>
   <si>
@@ -330,27 +333,27 @@
     <t>位置</t>
   </si>
   <si>
+    <t>最大堆叠</t>
+  </si>
+  <si>
     <t>背包</t>
   </si>
   <si>
     <t>装物品的背包</t>
   </si>
   <si>
+    <t>次元筒</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>大多数情况流通的货币</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>林晨（装备中）</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>大多数情况流通的货币</t>
-  </si>
-  <si>
-    <t>背包（林晨）</t>
-  </si>
-  <si>
     <t>血红酒</t>
   </si>
   <si>
@@ -415,6 +418,18 @@
   </si>
   <si>
     <t>泛着红光的注射剂，据说可以增强灵魂锁</t>
+  </si>
+  <si>
+    <t>抗毒针剂</t>
+  </si>
+  <si>
+    <t>可以提高对毒物的抗性，甚至解毒的针剂</t>
+  </si>
+  <si>
+    <t>土制燃烧弹</t>
+  </si>
+  <si>
+    <t>土制的碰炸燃烧弹，2枚以上才能点燃站位</t>
   </si>
   <si>
     <t>信物</t>
@@ -812,9 +827,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -832,36 +847,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -870,24 +855,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,14 +900,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -925,7 +915,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -940,15 +938,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +963,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,6 +980,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -985,25 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,37 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1066,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,43 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,6 +1132,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1165,7 +1168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1191,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1197,23 +1260,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,191 +1291,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1799,10 +1817,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H109"/>
+  <dimension ref="B1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1813,7 +1831,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -2281,6 +2299,11 @@
     <row r="109" spans="3:3">
       <c r="C109" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2293,10 +2316,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2305,243 +2328,310 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>108</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>67660</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>108</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>108</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2563,607 +2653,607 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/冒险之书.xlsx
+++ b/资料库/冒险之书.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
   <si>
     <t>玩家情况</t>
   </si>
@@ -366,7 +366,7 @@
     <t>恢复魔力的药水</t>
   </si>
   <si>
-    <t>不明液体</t>
+    <t>万灵药</t>
   </si>
   <si>
     <t>有着彩虹光芒的液体</t>
@@ -390,13 +390,13 @@
     <t>可以清明神智的药水</t>
   </si>
   <si>
-    <t>神秘药物</t>
+    <t>解毒剂</t>
   </si>
   <si>
     <t>液体为黄色的药水</t>
   </si>
   <si>
-    <t>粘稠液体</t>
+    <t>阻燃黏胶</t>
   </si>
   <si>
     <t>内容物为青色粘稠液体的罐子</t>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>醉酒状态下饮下【水果酒】而引来狼群侵犯的冒险者，在之后被狼群征服反而与狼群为伴形成了麻烦的共生状态。现在是森林地层的猎手的一种</t>
+  </si>
+  <si>
+    <t>插着羽毛的冒险者</t>
+  </si>
+  <si>
+    <t>有着棕色的辫子和黝黑的皮肤的冒险者，性格开朗豪爽。头上插着一根羽毛。在完成驱鬼任务之后分摊奖金时与冒险者小队相遇并提供了情报</t>
+  </si>
+  <si>
+    <t>穿着修女服的冒险者</t>
+  </si>
+  <si>
+    <t>似乎是隶属于教会的修女，从对话来看并不属于合作的冒险者的小队。有着黑色的长发，声音很可爱。不善于对应陌生人，嗜酒。似乎很擅长驱灵</t>
   </si>
 </sst>
 </file>
@@ -827,9 +839,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -847,6 +859,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -855,30 +897,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,13 +936,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -915,15 +952,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -938,17 +967,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,33 +996,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1000,19 +1012,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,19 +1084,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,13 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,66 +1174,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1150,37 +1186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,54 +1203,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1260,8 +1224,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,153 +1270,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2319,7 +2331,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2376,7 +2388,7 @@
         <v>111</v>
       </c>
       <c r="H3">
-        <v>67660</v>
+        <v>50660</v>
       </c>
       <c r="I3" t="s">
         <v>108</v>
@@ -2643,10 +2655,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C123"/>
+  <dimension ref="B2:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3256,6 +3268,26 @@
         <v>267</v>
       </c>
     </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/资料库/冒险之书.xlsx
+++ b/资料库/冒险之书.xlsx
@@ -10,13 +10,14 @@
     <sheet name="简易log" sheetId="1" r:id="rId1"/>
     <sheet name="物品栏" sheetId="2" r:id="rId2"/>
     <sheet name="人物资料" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="299">
   <si>
     <t>玩家情况</t>
   </si>
@@ -42,6 +43,9 @@
     <t>选择了转魂符咒</t>
   </si>
   <si>
+    <t>装备：金属腕轮、皮革束腰、拳套、快速腰带、直剑</t>
+  </si>
+  <si>
     <t>与道具店主亲密互动了</t>
   </si>
   <si>
@@ -57,6 +61,12 @@
     <t>使用了神力破坏心灵护盾</t>
   </si>
   <si>
+    <t>装备：刀鞘腰带、皮革束腰、皮制小帽、权杖</t>
+  </si>
+  <si>
+    <t>装备、铁制胸甲、铁制护额、刀鞘腰带、鞘盾、思慕之剑</t>
+  </si>
+  <si>
     <t>任务</t>
   </si>
   <si>
@@ -321,6 +331,12 @@
     <t>卖给了队伍商品的小贩被卫兵追捕</t>
   </si>
   <si>
+    <t>重新打听了任务情报</t>
+  </si>
+  <si>
+    <t>在卫兵的帮助下重新购买了物资</t>
+  </si>
+  <si>
     <t>物品名</t>
   </si>
   <si>
@@ -519,6 +535,9 @@
     <t>会用假哭、扮丧脸的方式骗取外人信任，在团队中属于惹事精。虽然因为这样那样的问题经常被队友鄙视，意外地互相之间关系并不差。喜欢喝酒</t>
   </si>
   <si>
+    <t>会煮饭，并且喜欢看别人吃自己的饭</t>
+  </si>
+  <si>
     <t>亚（巫女小队棕发游侠</t>
   </si>
   <si>
@@ -531,7 +550,7 @@
     <t>穿着金色盔甲，身材高大的骑士。说话声音很小，基本都在打圆场。似乎出身高贵的样子。对锻炼很执着。怪力女</t>
   </si>
   <si>
-    <t>大帽子法师（巫女小队）</t>
+    <t>真冬（巫女小队）</t>
   </si>
   <si>
     <t>戴着不符合身材的高大帽子的法师系角色，小不点。与之相反的说话声音很大声，经常指摘队友行动中不合理的地方，似乎是常识人。姓名不明</t>
@@ -612,10 +631,10 @@
     <t>据爱所言，是带领琥珀行动的中心人物，但是先前却自行抛弃琥珀消失。在梦中世界时有遇到，发言不明所以，就连琥珀也搞不懂她真正的意图</t>
   </si>
   <si>
-    <t>粉色头发的卫兵（联合作战部队）</t>
-  </si>
-  <si>
-    <t>有着可爱系的短发和帅气的举止的少女。担任地牢的卫兵，但在清缴哥布林王的战斗时遭遇突发情况被俘获。现已被救出后回归队伍。姓名不明</t>
+    <t>桃（联合作战部队）</t>
+  </si>
+  <si>
+    <t>有着可爱系的短发和帅气的举止的少女。担任地牢的卫兵，但在清缴哥布林王的战斗时遭遇突发情况被俘获。现已被救出后回归队伍。在集市帮忙把一些压收的商品卖给冒险者小队</t>
   </si>
   <si>
     <t>林明（护卫小队队长）</t>
@@ -832,6 +851,69 @@
   </si>
   <si>
     <t>似乎是隶属于教会的修女，从对话来看并不属于合作的冒险者的小队。有着黑色的长发，声音很可爱。不善于对应陌生人，嗜酒。似乎很擅长驱灵</t>
+  </si>
+  <si>
+    <t>大帽子魔女</t>
+  </si>
+  <si>
+    <t>终于能够回到自己师傅留下的店面的魔女一样的少女，在名为“咕噜咕噜魔法店”的地方售卖卷轴和法术服务。</t>
+  </si>
+  <si>
+    <t>看起来非常年幼，身材娇小，留着淡紫色的三股辫，戴着巨大的帽子穿着淡紫色的轻薄长袍。对于魔法的事情了解甚多，但总有点蠢的感觉</t>
+  </si>
+  <si>
+    <t>对于自己的师傅似乎相当仰慕，如果有人说自己师傅的坏话会很生气</t>
+  </si>
+  <si>
+    <t>我1</t>
+  </si>
+  <si>
+    <t>我2</t>
+  </si>
+  <si>
+    <t>我3</t>
+  </si>
+  <si>
+    <t>我4</t>
+  </si>
+  <si>
+    <t>我5</t>
+  </si>
+  <si>
+    <t>我6</t>
+  </si>
+  <si>
+    <t>敌1</t>
+  </si>
+  <si>
+    <t>敌2</t>
+  </si>
+  <si>
+    <t>敌3</t>
+  </si>
+  <si>
+    <t>敌4</t>
+  </si>
+  <si>
+    <t>敌5</t>
+  </si>
+  <si>
+    <t>敌6</t>
+  </si>
+  <si>
+    <t>薇薇安</t>
+  </si>
+  <si>
+    <t>梅</t>
+  </si>
+  <si>
+    <t>亚</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>真冬</t>
   </si>
 </sst>
 </file>
@@ -839,10 +921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -859,8 +941,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,26 +971,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,7 +1004,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,31 +1039,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -967,15 +1054,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,8 +1077,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,13 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,19 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1118,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,19 +1214,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,103 +1268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,6 +1285,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1225,7 +1331,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,6 +1368,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1270,192 +1385,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1829,10 +1914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H110"/>
+  <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1843,7 +1928,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -1868,454 +1953,475 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2437,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2342,27 +2448,27 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2371,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2379,36 +2485,36 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H3">
-        <v>50660</v>
+        <v>48410</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -2416,16 +2522,16 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -2433,108 +2539,114 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2543,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -2551,10 +2663,10 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2563,18 +2675,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="1" t="s">
-        <v>134</v>
+      <c r="B15" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2583,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2591,10 +2703,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2603,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -2611,39 +2723,39 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2655,637 +2767,739 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C127"/>
+  <dimension ref="B2:C132"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="122.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>204</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
-      <c r="C86" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
-      <c r="C90" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
-      <c r="C99" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
-      <c r="C114" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
-      <c r="C116" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
-      <c r="C118" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
-      <c r="C120" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
-      <c r="C127" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" ht="20.5" customHeight="1" spans="3:3">
+      <c r="C130" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
